--- a/11 Sur.xlsx
+++ b/11 Sur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -55,13 +55,19 @@
   <si>
     <t>Falta un baucher fisicamente con la cantidad de $118 pero en el reporte de la terminal si esta registrada. En el reporte hay un retiro con la cantidad de $44,071 no esta escrita en el cuaderno ni firmada al día siguiente,</t>
   </si>
+  <si>
+    <t>Falta un baucher fisicamente con la cantidad de $272.00, $99.00,$130.0. En el reporte de terminal dichas cantidades se encuentran cobradas</t>
+  </si>
+  <si>
+    <t>Falta retiro con la cantidad de $39703.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -137,17 +143,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +437,7 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,38 +446,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -495,7 +501,7 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -800,7 +806,7 @@
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1105,7 +1111,7 @@
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1398,7 @@
       <c r="C107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1481,6 +1487,9 @@
       <c r="B116" t="s">
         <v>8</v>
       </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
       <c r="E116">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1492,6 +1501,9 @@
       </c>
       <c r="B117" t="s">
         <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
       </c>
       <c r="E117">
         <f t="shared" si="3"/>
